--- a/02-intermediate/000-func-index.xlsx
+++ b/02-intermediate/000-func-index.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="func" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>func</t>
   </si>
@@ -123,13 +123,43 @@
   </si>
   <si>
     <t>122-hands-on-02</t>
+  </si>
+  <si>
+    <t>=NOW()-RANDBETWEEN(0,4)</t>
+  </si>
+  <si>
+    <t>=RANDBETWEEN(112,785)</t>
+  </si>
+  <si>
+    <t>=RANDBETWEEN(112,1000)*RAND()</t>
+  </si>
+  <si>
+    <t>132-group</t>
+  </si>
+  <si>
+    <t>generates random date</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>generates random amount</t>
+  </si>
+  <si>
+    <t>generates random amount and then multiplies it by random fraction (0 - 1)</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +170,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -166,9 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,31 +526,39 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="52.06640625" customWidth="1"/>
     <col min="3" max="3" width="45.86328125" customWidth="1"/>
     <col min="4" max="4" width="15.06640625" customWidth="1"/>
+    <col min="5" max="5" width="33.86328125" customWidth="1"/>
+    <col min="6" max="6" width="60.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -521,7 +569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -532,7 +580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -543,7 +591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -554,7 +602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -565,7 +613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -576,7 +624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -587,7 +635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -598,7 +646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -609,7 +657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -620,7 +668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -631,7 +679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -642,7 +690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -653,7 +701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -664,7 +712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -675,7 +723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -686,7 +734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -697,7 +745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -705,6 +753,68 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
         <v>28</v>
       </c>
     </row>

--- a/02-intermediate/000-func-index.xlsx
+++ b/02-intermediate/000-func-index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="func" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">func!$A$1:$E$42</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
   <si>
     <t>func</t>
   </si>
@@ -153,13 +156,142 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>175-hands-on-04</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>174-hands-on-03</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>173-hands-on-02</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>ifna</t>
+  </si>
+  <si>
+    <t>172-hands-on-01</t>
+  </si>
+  <si>
+    <t>171-xor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170-or </t>
+  </si>
+  <si>
+    <t>169-and</t>
+  </si>
+  <si>
+    <t>168-not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167-true-false </t>
+  </si>
+  <si>
+    <t>166-iferror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165-if </t>
+  </si>
+  <si>
+    <t xml:space="preserve">164-ifna </t>
+  </si>
+  <si>
+    <t>163-na</t>
+  </si>
+  <si>
+    <t>176-hands-on-05</t>
+  </si>
+  <si>
+    <t>177-hands-on-06</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>isodd</t>
+  </si>
+  <si>
+    <t>179-capitalization</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>180-concat</t>
+  </si>
+  <si>
+    <t>181-replace-text</t>
+  </si>
+  <si>
+    <t>substitute</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>182-finding-text</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>183-text-length</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>185-text-equality</t>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>186-trimming-text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +309,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,11 +343,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,299 +666,648 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:F24"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="52.06640625" customWidth="1"/>
-    <col min="3" max="3" width="45.86328125" customWidth="1"/>
-    <col min="4" max="4" width="15.06640625" customWidth="1"/>
-    <col min="5" max="5" width="33.86328125" customWidth="1"/>
-    <col min="6" max="6" width="60.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.86328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="60.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
-        <v>28</v>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E44">
+    <sortCondition ref="B2:B44"/>
+    <sortCondition ref="A2:A44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/02-intermediate/000-func-index.xlsx
+++ b/02-intermediate/000-func-index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
   <si>
     <t>func</t>
   </si>
@@ -266,9 +266,6 @@
     <t>len</t>
   </si>
   <si>
-    <t>185-text-equality</t>
-  </si>
-  <si>
     <t>exact</t>
   </si>
   <si>
@@ -284,7 +281,31 @@
     <t>trim</t>
   </si>
   <si>
-    <t>186-trimming-text</t>
+    <t>185-trimming-text</t>
+  </si>
+  <si>
+    <t>184-text-equality</t>
+  </si>
+  <si>
+    <t>186-hands-on-01</t>
+  </si>
+  <si>
+    <t>187-hands-on-02</t>
+  </si>
+  <si>
+    <t>188-hands-on-03</t>
+  </si>
+  <si>
+    <t>189-hands-on-04</t>
+  </si>
+  <si>
+    <t>190-hands-on-05</t>
+  </si>
+  <si>
+    <t>191-hands-on-06</t>
+  </si>
+  <si>
+    <t>192-hands-on-07</t>
   </si>
 </sst>
 </file>
@@ -666,11 +687,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1265,42 +1286,154 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>85</v>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/02-intermediate/000-func-index.xlsx
+++ b/02-intermediate/000-func-index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="140">
   <si>
     <t>func</t>
   </si>
@@ -306,6 +306,147 @@
   </si>
   <si>
     <t>192-hands-on-07</t>
+  </si>
+  <si>
+    <t>194-current</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>weeknum</t>
+  </si>
+  <si>
+    <t>195-create</t>
+  </si>
+  <si>
+    <t>196-extract</t>
+  </si>
+  <si>
+    <t>days360</t>
+  </si>
+  <si>
+    <t>networkdays</t>
+  </si>
+  <si>
+    <t>yearfrac</t>
+  </si>
+  <si>
+    <t>edate</t>
+  </si>
+  <si>
+    <t>eomonth</t>
+  </si>
+  <si>
+    <t>197-durations</t>
+  </si>
+  <si>
+    <t>198-the-future</t>
+  </si>
+  <si>
+    <t>199-hands-on-01</t>
+  </si>
+  <si>
+    <t>200-hands-on-02</t>
+  </si>
+  <si>
+    <t>202-hands-on-04</t>
+  </si>
+  <si>
+    <t>203-hands-on-05</t>
+  </si>
+  <si>
+    <t>204-hands-on-06</t>
+  </si>
+  <si>
+    <t>hlookup</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>transpose</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>formulatext</t>
+  </si>
+  <si>
+    <t>206-vlookup</t>
+  </si>
+  <si>
+    <t>207-hlookup</t>
+  </si>
+  <si>
+    <t>208-index</t>
+  </si>
+  <si>
+    <t>209-match</t>
+  </si>
+  <si>
+    <t>210-choose</t>
+  </si>
+  <si>
+    <t>211-array-transpose</t>
+  </si>
+  <si>
+    <t>212-row-column</t>
+  </si>
+  <si>
+    <t>213-references</t>
   </si>
 </sst>
 </file>
@@ -364,12 +505,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,11 +829,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1219,6 +1361,9 @@
       <c r="B45" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="C45" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
@@ -1227,6 +1372,9 @@
       <c r="B46" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="C46" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
@@ -1235,6 +1383,9 @@
       <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="C47" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
@@ -1243,197 +1394,855 @@
       <c r="B48" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C57" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C58" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C60" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C61" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C64" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C66" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C67" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C68" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C69" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C71" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>92</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/02-intermediate/000-func-index.xlsx
+++ b/02-intermediate/000-func-index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="165">
   <si>
     <t>func</t>
   </si>
@@ -447,6 +447,81 @@
   </si>
   <si>
     <t>213-references</t>
+  </si>
+  <si>
+    <t>225-top-10</t>
+  </si>
+  <si>
+    <t>224-contents-2</t>
+  </si>
+  <si>
+    <t>islogical</t>
+  </si>
+  <si>
+    <t>isnontext</t>
+  </si>
+  <si>
+    <t>isnumber</t>
+  </si>
+  <si>
+    <t>istext</t>
+  </si>
+  <si>
+    <t>isblank</t>
+  </si>
+  <si>
+    <t>isformula</t>
+  </si>
+  <si>
+    <t>isref</t>
+  </si>
+  <si>
+    <t>223-contents-1</t>
+  </si>
+  <si>
+    <t>222-iserror-iserr</t>
+  </si>
+  <si>
+    <t>iserror</t>
+  </si>
+  <si>
+    <t>iserr</t>
+  </si>
+  <si>
+    <t>221-na-isna</t>
+  </si>
+  <si>
+    <t>isna</t>
+  </si>
+  <si>
+    <t>220-even-odd</t>
+  </si>
+  <si>
+    <t>iseven</t>
+  </si>
+  <si>
+    <t>219-cell</t>
+  </si>
+  <si>
+    <t>218-info</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>217-hands-on-04</t>
+  </si>
+  <si>
+    <t>216-hands-on-03</t>
+  </si>
+  <si>
+    <t>215-hands-on-02</t>
+  </si>
+  <si>
+    <t>214-hands-on-01</t>
   </si>
 </sst>
 </file>
@@ -505,13 +580,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,11 +902,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1082,7 +1155,7 @@
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1099,7 +1172,7 @@
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1116,7 +1189,7 @@
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1168,7 +1241,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1179,7 +1252,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1367,7 +1440,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>67</v>
@@ -1378,7 +1451,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>67</v>
@@ -1400,7 +1473,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>72</v>
@@ -1411,7 +1484,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>72</v>
@@ -1477,7 +1550,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>84</v>
@@ -1488,7 +1561,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>84</v>
@@ -1521,7 +1594,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>86</v>
@@ -1532,7 +1605,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>86</v>
@@ -1554,7 +1627,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>88</v>
@@ -1565,7 +1638,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>88</v>
@@ -1631,7 +1704,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>92</v>
@@ -1642,7 +1715,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>92</v>
@@ -1663,7 +1736,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1674,7 +1747,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -1685,7 +1758,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -1696,7 +1769,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -1707,7 +1780,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -1718,7 +1791,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -1729,7 +1802,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -1740,8 +1813,8 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="5" t="s">
-        <v>99</v>
+      <c r="A80" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>105</v>
@@ -1751,8 +1824,8 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="5" t="s">
-        <v>100</v>
+      <c r="A81" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>105</v>
@@ -1762,8 +1835,8 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="5" t="s">
-        <v>101</v>
+      <c r="A82" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>105</v>
@@ -1773,8 +1846,8 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="5" t="s">
-        <v>102</v>
+      <c r="A83" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>105</v>
@@ -1784,8 +1857,8 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="5" t="s">
-        <v>103</v>
+      <c r="A84" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>105</v>
@@ -1795,7 +1868,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -1806,7 +1879,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -1817,7 +1890,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1828,7 +1901,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -1839,7 +1912,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -1850,7 +1923,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -1861,8 +1934,8 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="5" t="s">
-        <v>38</v>
+      <c r="A91" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>113</v>
@@ -1872,8 +1945,8 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="5" t="s">
-        <v>94</v>
+      <c r="A92" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>113</v>
@@ -1883,8 +1956,8 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="5" t="s">
-        <v>95</v>
+      <c r="A93" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>113</v>
@@ -1894,8 +1967,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="5" t="s">
-        <v>96</v>
+      <c r="A94" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>113</v>
@@ -1905,7 +1978,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -1916,7 +1989,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -1927,7 +2000,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -1938,8 +2011,8 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="5" t="s">
-        <v>99</v>
+      <c r="A98" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>114</v>
@@ -1949,8 +2022,8 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="5" t="s">
-        <v>100</v>
+      <c r="A99" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>114</v>
@@ -1960,8 +2033,8 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="5" t="s">
-        <v>101</v>
+      <c r="A100" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>114</v>
@@ -1971,8 +2044,8 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="5" t="s">
-        <v>102</v>
+      <c r="A101" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>114</v>
@@ -1982,8 +2055,8 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="5" t="s">
-        <v>103</v>
+      <c r="A102" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>114</v>
@@ -1993,7 +2066,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -2004,7 +2077,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -2015,7 +2088,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -2026,7 +2099,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -2037,7 +2110,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -2048,7 +2121,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -2059,7 +2132,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -2070,7 +2143,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -2081,7 +2154,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -2092,7 +2165,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -2103,7 +2176,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -2114,7 +2187,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -2125,7 +2198,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -2136,7 +2209,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -2147,7 +2220,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -2158,7 +2231,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -2169,8 +2242,8 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>125</v>
+      <c r="A119" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>138</v>
@@ -2180,8 +2253,8 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
-        <v>126</v>
+      <c r="A120" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>138</v>
@@ -2191,8 +2264,8 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
-        <v>127</v>
+      <c r="A121" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>139</v>
@@ -2202,8 +2275,8 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>128</v>
+      <c r="A122" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>139</v>
@@ -2213,8 +2286,8 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>129</v>
+      <c r="A123" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>139</v>
@@ -2224,8 +2297,8 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
-        <v>130</v>
+      <c r="A124" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>139</v>
@@ -2235,8 +2308,8 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
-        <v>131</v>
+      <c r="A125" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>139</v>
@@ -2245,10 +2318,340 @@
         <v>28</v>
       </c>
     </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:E44">
-    <sortCondition ref="B2:B44"/>
-    <sortCondition ref="A2:A44"/>
+  <sortState ref="A2:E155">
+    <sortCondition ref="B2:B155"/>
+    <sortCondition ref="A2:A155"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
